--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3628.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3628.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.727996330416862</v>
+        <v>1.511549711227417</v>
       </c>
       <c r="B1">
-        <v>2.511689416121713</v>
+        <v>2.018351793289185</v>
       </c>
       <c r="C1">
-        <v>2.650115722098607</v>
+        <v>3.41135835647583</v>
       </c>
       <c r="D1">
-        <v>3.007489966491134</v>
+        <v>1.366315603256226</v>
       </c>
       <c r="E1">
-        <v>0.8367688988640695</v>
+        <v>0.8139936327934265</v>
       </c>
     </row>
   </sheetData>
